--- a/posts/pool-landscape-report-may-2023-week-2/data/Book1.xlsx
+++ b/posts/pool-landscape-report-may-2023-week-2/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophegarant/balance_analytics_2023_03_16/BALANCE_Media_Preview/posts/pool-landscape-report-may-2023-week-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FD5708-EEC6-BF41-BA8F-5D02BB469A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D4BBA-975E-1641-9F5F-BA6351429193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="500" windowWidth="17900" windowHeight="16340" xr2:uid="{7F35CA19-CA60-CA4D-A26C-1A79183480ED}"/>
+    <workbookView xWindow="21480" yWindow="500" windowWidth="16920" windowHeight="16340" xr2:uid="{7F35CA19-CA60-CA4D-A26C-1A79183480ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,10 +677,7 @@
         <f>C14-B14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="e">
-        <f>(C14-B14)/B14</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">

--- a/posts/pool-landscape-report-may-2023-week-2/data/Book1.xlsx
+++ b/posts/pool-landscape-report-may-2023-week-2/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophegarant/balance_analytics_2023_03_16/BALANCE_Media_Preview/posts/pool-landscape-report-may-2023-week-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D4BBA-975E-1641-9F5F-BA6351429193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35729D9-5CFD-2E45-91BE-F48C6E5173B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="500" windowWidth="16920" windowHeight="16340" xr2:uid="{7F35CA19-CA60-CA4D-A26C-1A79183480ED}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>NAME</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Staked Ada</t>
+  </si>
+  <si>
+    <t>DeFiLama Cardano TVL</t>
+  </si>
+  <si>
+    <t>Percent of DeFi impacts</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -172,6 +178,7 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -488,32 +495,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95C1AA6-91E2-ED48-BEB7-079EB2575420}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="10">
         <v>390</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="10">
         <v>411</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -570,10 +579,22 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="2">
+        <f>B4+B3</f>
+        <v>141682702</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4+C3</f>
+        <v>117112943</v>
+      </c>
       <c r="D5" s="2">
         <f>D3+D4</f>
         <v>-24569759</v>
       </c>
+      <c r="E5" s="3">
+        <f>(C5-B5)/B5</f>
+        <v>-0.17341396411257035</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -628,10 +649,22 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="2">
+        <f>B9+B8</f>
+        <v>2884453691</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C9+C8</f>
+        <v>1310712919</v>
+      </c>
       <c r="D10" s="2">
         <f>D8+D9</f>
         <v>-1573740772</v>
       </c>
+      <c r="E10" s="3">
+        <f>(C10-B10)/B10</f>
+        <v>-0.54559405023916541</v>
+      </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -677,16 +710,30 @@
         <f>C14-B14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
+      <c r="B15" s="2">
+        <f>B14+B13</f>
+        <v>365235217</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C14+C13</f>
+        <v>224609870</v>
+      </c>
       <c r="D15" s="2">
         <f>D13+D14</f>
         <v>-140625347</v>
       </c>
+      <c r="E15" s="3">
+        <f>(C15-B15)/B15</f>
+        <v>-0.38502680041393711</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
@@ -743,12 +790,22 @@
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="2">
+        <f>B19+B18</f>
+        <v>2588825058</v>
+      </c>
+      <c r="C20" s="2">
+        <f>C19+C18</f>
+        <v>2168380655</v>
+      </c>
       <c r="D20" s="2">
         <f>D18+D19</f>
         <v>-420444403</v>
       </c>
+      <c r="E20" s="3">
+        <f>(C20-B20)/B20</f>
+        <v>-0.16240742173780365</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
@@ -785,7 +842,7 @@
       </c>
       <c r="D24" s="1">
         <f>D25/(1+C25)</f>
-        <v>24089490114.4641</v>
+        <v>24786680541.10302</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -800,22 +857,28 @@
         <v>-3.9000000000000035E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>23150000000</v>
+        <v>23820000000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" s="1">
         <f>D25-D24</f>
-        <v>-939490114.46409988</v>
+        <v>-966680541.10301971</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D27" s="1"/>
+      <c r="D27" s="3">
+        <f>B33/D26</f>
+        <v>-9.8088247325022943E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D28" s="9">
         <f>D26/D22</f>
-        <v>0.43627607671042118</v>
+        <v>0.44890264134955743</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>11</v>
@@ -823,6 +886,37 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <v>44927</v>
+      </c>
+      <c r="B31" s="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
+        <v>45061</v>
+      </c>
+      <c r="B32" s="1">
+        <v>144820000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <f>B32-B31</f>
+        <v>94820000</v>
+      </c>
+      <c r="C33" s="3">
+        <f>(B32-B31)/B31</f>
+        <v>1.8964000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/posts/pool-landscape-report-may-2023-week-2/data/Book1.xlsx
+++ b/posts/pool-landscape-report-may-2023-week-2/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophegarant/balance_analytics_2023_03_16/BALANCE_Media_Preview/posts/pool-landscape-report-may-2023-week-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35729D9-5CFD-2E45-91BE-F48C6E5173B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3675DD-D4A8-CC4B-A2B6-0921DA6B490D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="500" windowWidth="16920" windowHeight="16340" xr2:uid="{7F35CA19-CA60-CA4D-A26C-1A79183480ED}"/>
+    <workbookView xWindow="18480" yWindow="500" windowWidth="10320" windowHeight="16340" xr2:uid="{7F35CA19-CA60-CA4D-A26C-1A79183480ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,8 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -160,13 +161,14 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -179,6 +181,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -498,7 +501,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,30 +513,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="11">
         <v>390</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="11">
         <v>411</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -596,14 +599,14 @@
         <v>-0.17341396411257035</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -666,14 +669,14 @@
         <v>-0.54559405023916541</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -735,18 +738,18 @@
         <v>-0.38502680041393711</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -807,25 +810,25 @@
         <v>-0.16240742173780365</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="13">
-        <f>B3+B8+B13+B18</f>
-        <v>5969504569</v>
-      </c>
-      <c r="C22" s="13">
-        <f>C3+C8+C13+C18</f>
-        <v>3816074288</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="B22" s="14">
+        <f>B20+B15+B10+B5</f>
+        <v>5980196668</v>
+      </c>
+      <c r="C22" s="14">
+        <f>C20+C15+C10+C5</f>
+        <v>3820816387</v>
+      </c>
+      <c r="D22" s="14">
         <f>C22-B22</f>
-        <v>-2153430281</v>
-      </c>
-      <c r="E22" s="14">
+        <v>-2159380281</v>
+      </c>
+      <c r="E22" s="15">
         <f>(C22-B22)/B22</f>
-        <v>-0.36073852630633607</v>
+        <v>-0.36108850609459586</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -834,66 +837,81 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <v>45017</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="7">
         <v>0.68400000000000005</v>
       </c>
       <c r="D24" s="1">
         <f>D25/(1+C25)</f>
-        <v>24786680541.10302</v>
+        <v>24658385093.167702</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>45058</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="A25" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="C25" s="7">
         <f>B25-B24</f>
-        <v>-3.9000000000000035E-2</v>
+        <v>-3.400000000000003E-2</v>
       </c>
       <c r="D25" s="1">
         <v>23820000000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
       <c r="D26" s="1">
         <f>D25-D24</f>
-        <v>-966680541.10301971</v>
+        <v>-838385093.16770172</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D27" s="3">
         <f>B33/D26</f>
-        <v>-9.8088247325022943E-2</v>
+        <v>-0.11309838494591794</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="9">
+      <c r="D28" s="10">
         <f>D26/D22</f>
-        <v>0.44890264134955743</v>
-      </c>
-      <c r="E28" s="10" t="s">
+        <v>0.38825263921528869</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="1"/>
+      <c r="B29" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="C29" s="19">
+        <f>B25-B29</f>
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <f>D25/(1+C29)</f>
+        <v>25612903225.80645</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
+      <c r="D30" s="2">
+        <f>D25-D29</f>
+        <v>-1792903225.8064499</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
+      <c r="A31" s="18">
         <v>44927</v>
       </c>
       <c r="B31" s="1">
@@ -901,7 +919,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
+      <c r="A32" s="18">
         <v>45061</v>
       </c>
       <c r="B32" s="1">
